--- a/medicine/Enfance/David_Wiesner/David_Wiesner.xlsx
+++ b/medicine/Enfance/David_Wiesner/David_Wiesner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">David Wiesner est un auteur et illustrateur américain de livres pour enfants. Il est né à Bridgewater, dans le New Jersey, le 5 février 1956.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">David Wiesner a grandi dans le New Jersey[1] et étudié à la Rhode Island School of Design où il a affiné son imagination. Il a reçu plusieurs récompenses notamment trois médailles Caldecott et deux Honors Books Caldecott[2].
-En 2021, il est sélectionné pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David Wiesner a grandi dans le New Jersey et étudié à la Rhode Island School of Design où il a affiné son imagination. Il a reçu plusieurs récompenses notamment trois médailles Caldecott et deux Honors Books Caldecott.
+En 2021, il est sélectionné pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren.
 </t>
         </is>
       </c>
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Auteur et illustrateur
-Loathsome Dragon, 1987
+          <t>Auteur et illustrateur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Loathsome Dragon, 1987
 Free Fall, 1988
 trad. Chute libre, Éditions Circonflexe, 2008
 Hurricane, 1990
@@ -562,12 +581,7 @@
 Art &amp; Max, 2010
 trad. Max et son art, Paris, Éditions Circonflexe, 2011
 Mr. Wuffles!, 2013
-trad. Monsieur Chat !, le Genévrier, 2014
-Illustrateur
-Application numérique
-David Wiesner's spot, Houghton Mifflin Harcourt, Boston (USA), 2014
-Foire du livre de jeunesse de Bologne 2015 : Mention[4] "BolognaRagazzi Digital Award", catégorie Fiction
-Salon du livre et de la presse jeunesse de Montreuil 2015 : Pépite du livre 2015[5], Catégorie Création numérique.</t>
+trad. Monsieur Chat !, le Genévrier, 2014</t>
         </is>
       </c>
     </row>
@@ -592,21 +606,61 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Application numérique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>David Wiesner's spot, Houghton Mifflin Harcourt, Boston (USA), 2014
+Foire du livre de jeunesse de Bologne 2015 : Mention "BolognaRagazzi Digital Award", catégorie Fiction
+Salon du livre et de la presse jeunesse de Montreuil 2015 : Pépite du livre 2015, Catégorie Création numérique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>David_Wiesner</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/David_Wiesner</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1989 : Finaliste (Honor Books) Médaille Caldecott pour Free Fall (Chute libre)
 1992 : Médaille Caldecott pour Tuesday (Mardi)
 2002 : Médaille Caldecott pour The Three Pigs (Les Trois cochons)
 2002 : Prix Sorcières catégorie Album pour Les Trois cochons (The Three Pigs)
-2004 : (international) « Honour List »[6] de l' IBBY pour Les Trois cochons
+2004 : (international) « Honour List » de l' IBBY pour Les Trois cochons
 2007 : Médaille Caldecott pour Flotsam (Le Monde englouti)
 2014 : Finaliste (Honor Books) Médaille Caldecott pour Mr. Wuffles! (Monsieur Chat !)
-2015 : Foire du livre de jeunesse de Bologne : Mention[4] "BolognaRagazzi Digital Award" (application numérique), catégorie Fiction, pour David Wiesner's spot
-2015 : Pépite du livre 2015[5] au Salon du livre et de la presse jeunesse de Montreuil, Catégorie Création numérique, pour David Wiesner's spot
-2021 :  Sélection pour le Prix commémoratif Astrid-Lindgren[3]</t>
+2015 : Foire du livre de jeunesse de Bologne : Mention "BolognaRagazzi Digital Award" (application numérique), catégorie Fiction, pour David Wiesner's spot
+2015 : Pépite du livre 2015 au Salon du livre et de la presse jeunesse de Montreuil, Catégorie Création numérique, pour David Wiesner's spot
+2021 :  Sélection pour le Prix commémoratif Astrid-Lindgren</t>
         </is>
       </c>
     </row>
